--- a/fall19/assignment04/Grading Template 04.xlsx
+++ b/fall19/assignment04/Grading Template 04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\GitHub\aavolo\cmsi186\spring19\assignment04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186\Live on Github\cmsi186\fall19\assignment04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186563D-CCDB-42B2-9F6E-B5E639F6AB0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977EE0B-ACB1-492D-9B6D-588A0BB490CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="4" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
   </bookViews>
@@ -525,6 +525,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,9 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="2">
         <v>5</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="6">
         <v>8</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="9">
@@ -1290,7 +1290,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2">
         <v>2</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="2">
         <v>3</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="2">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="2">
         <v>7</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="2">
         <v>8</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="2">
         <v>9</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="31"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="6">
         <v>10</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="9">
@@ -1414,7 +1414,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="2">
         <v>2</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="2">
         <v>3</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="2">
         <v>4</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="2">
         <v>5</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="2">
         <v>6</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="2">
         <v>7</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="6">
         <v>8</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8">
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8">
         <v>4</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="8">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="8">
         <v>6</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8">
         <v>7</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8">
         <v>8</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="27">
@@ -1707,7 +1707,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="8">
         <v>2</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="8">
         <v>3</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="8">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="8">
         <v>5</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="8">
         <v>6</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="8">
         <v>7</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="8">
         <v>8</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="28">
         <v>9</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="8">
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="29">
         <v>2</v>
       </c>
@@ -1854,8 +1854,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="27">
@@ -1945,7 +1945,7 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8">
         <v>4</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8">
         <v>5</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="28">
         <v>6</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="27">
@@ -2021,7 +2021,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="8">
         <v>2</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="19">
         <v>3</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="8">
         <v>4</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="8">
         <v>5</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="8">
         <v>6</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="8">
         <v>7</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="8">
         <v>8</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="8">
         <v>9</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="8">
         <v>10</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="8">
         <v>11</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="8">
         <v>12</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="28">
         <v>13</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="27">
@@ -2181,7 +2181,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="28">
         <v>2</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="8">
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="8">
         <v>2</v>
       </c>
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="8">
         <v>3</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="29"/>
       <c r="D31" s="25"/>
       <c r="E31" s="15"/>
@@ -2467,7 +2467,7 @@
         <f>SUMIF(D4:D13,"&lt;&gt;",C4:C13)</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="30">
         <f>IF(F4&lt;&gt;"",F4*($C$4/$C$14),0)+IF(F5&lt;&gt;"",F5*($C$5/$C$14),0)+IF(F6&lt;&gt;"",F6*($C$6/$C$14),0)+IF(F7&lt;&gt;"",F7*($C$7/$C$14),0)+IF(F8&lt;&gt;"",F8*($C$8/$C$14),0)+IF(F9&lt;&gt;"",F9*($C$9/$C$14),0)+IF(F10&lt;&gt;"",F10*($C$10/$C$14),0)+IF(F11&lt;&gt;"",F11*($C$11/$C$14),0)+IF(F12&lt;&gt;"",F12*($C$12/$C$14),0)+IF(F13&lt;&gt;"",F13*($C$13/$C$14),0)</f>
         <v>0.96296296296296302</v>
       </c>
